--- a/MXIC_PCCS/Content/MXIC/計價單.xlsx
+++ b/MXIC_PCCS/Content/MXIC/計價單.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我是賠錢貨\MXIC6969\MXIC_PCCS\Content\MXIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\賣噹噹\MXIC-NewIssue\MXIC_PCCS\Content\MXIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11076"/>
   </bookViews>
   <sheets>
     <sheet name="PO報價" sheetId="5" r:id="rId1"/>
@@ -867,6 +867,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -887,12 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1252,26 +1252,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="52" width="9" style="4" customWidth="1"/>
     <col min="53" max="54" width="9" style="2" customWidth="1"/>
     <col min="55" max="16384" width="9" style="2"/>
@@ -1281,20 +1284,20 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:52">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:52">
@@ -1304,17 +1307,17 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:52" ht="32.25">
-      <c r="A4" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+    <row r="4" spans="1:52" ht="33">
+      <c r="A4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="5"/>
@@ -1351,7 +1354,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:52" s="15" customFormat="1" ht="28.5">
+    <row r="8" spans="1:52" s="15" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1421,11 +1424,11 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" ht="30" customHeight="1">
-      <c r="A9" s="44">
+    <row r="9" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A9" s="46">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1447,9 +1450,9 @@
       </c>
       <c r="AZ9" s="2"/>
     </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+    <row r="10" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="21" t="s">
         <v>16</v>
       </c>
@@ -1468,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+    <row r="11" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
@@ -1489,9 +1492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="21.95" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="48"/>
+    <row r="12" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>21</v>
       </c>
@@ -1510,9 +1513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="21.95" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48"/>
+    <row r="13" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
@@ -1531,9 +1534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="21.95" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="48"/>
+    <row r="14" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>25</v>
       </c>
@@ -1552,9 +1555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+    <row r="15" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="16" t="s">
         <v>27</v>
       </c>
@@ -1573,9 +1576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+    <row r="16" spans="1:52" ht="34.950000000000003" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
@@ -1594,9 +1597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
+    <row r="17" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
@@ -1615,9 +1618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="47"/>
+    <row r="18" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
@@ -1637,9 +1640,9 @@
       </c>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+    <row r="19" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="16" t="s">
         <v>35</v>
       </c>
@@ -1658,9 +1661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
+    <row r="20" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47"/>
+    <row r="21" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -1700,9 +1703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
+    <row r="22" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>41</v>
       </c>
@@ -1721,9 +1724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
+    <row r="23" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="16" t="s">
         <v>43</v>
       </c>
@@ -1742,9 +1745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
+    <row r="24" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="21" t="s">
         <v>45</v>
       </c>
@@ -1763,9 +1766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47"/>
+    <row r="25" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="16" t="s">
         <v>47</v>
       </c>
@@ -1784,9 +1787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
+    <row r="26" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="21" t="s">
         <v>49</v>
       </c>
@@ -1805,9 +1808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
+    <row r="27" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
@@ -1826,9 +1829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="45"/>
-      <c r="B28" s="47"/>
+    <row r="28" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="21" t="s">
         <v>53</v>
       </c>
@@ -1847,9 +1850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
+    <row r="29" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="16" t="s">
         <v>55</v>
       </c>
@@ -1868,9 +1871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="45"/>
-      <c r="B30" s="47"/>
+    <row r="30" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="21" t="s">
         <v>57</v>
       </c>
@@ -1889,9 +1892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
+    <row r="31" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="16" t="s">
         <v>59</v>
       </c>
@@ -1910,9 +1913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
+    <row r="32" spans="1:10" ht="34.950000000000003" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="21" t="s">
         <v>61</v>
       </c>
@@ -1931,9 +1934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+    <row r="33" spans="1:11" ht="34.950000000000003" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="16" t="s">
         <v>63</v>
       </c>
@@ -2402,8 +2405,8 @@
     <mergeCell ref="B9:B33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>